--- a/output/calorimetry/test_1.xlsx
+++ b/output/calorimetry/test_1.xlsx
@@ -572,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>47.18270015984228</v>
+        <v>47.18270015984229</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.5879365291990792</v>
+        <v>0.587936529199079</v>
       </c>
     </row>
   </sheetData>
@@ -809,10 +809,10 @@
         <v>0.0006976282866079834</v>
       </c>
       <c r="B3">
-        <v>1.055186460276292e-06</v>
+        <v>1.055186460276294e-06</v>
       </c>
       <c r="C3">
-        <v>9.80677125326755e-05</v>
+        <v>9.806771253267584e-05</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -853,7 +853,7 @@
         <v>0.0003097466328334428</v>
       </c>
       <c r="B7">
-        <v>1.164890248858931e-05</v>
+        <v>1.164890248858929e-05</v>
       </c>
       <c r="C7">
         <v>0.0004806891923922884</v>
@@ -861,13 +861,13 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>0.0002188595963794341</v>
+        <v>0.0002188595963794338</v>
       </c>
       <c r="B8">
-        <v>1.955886849738579e-05</v>
+        <v>1.955886849738576e-05</v>
       </c>
       <c r="C8">
-        <v>0.0005702720342721516</v>
+        <v>0.0005702720342721496</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -894,21 +894,21 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>4.102516200277918e-05</v>
+        <v>4.102516200277925e-05</v>
       </c>
       <c r="B11">
         <v>0.0001361689327009991</v>
       </c>
       <c r="C11">
-        <v>0.0007442195803050438</v>
+        <v>0.0007442195803050465</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>2.601830377458869e-05</v>
+        <v>2.601830377458864e-05</v>
       </c>
       <c r="B12">
-        <v>0.0002186667220989647</v>
+        <v>0.0002186667220989651</v>
       </c>
       <c r="C12">
         <v>0.0007579393040223681</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>1.435614766801903e-05</v>
+        <v>1.4356147668019e-05</v>
       </c>
       <c r="B14">
         <v>0.0004010580457861277</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>1.16553780525012e-05</v>
+        <v>1.165537805250118e-05</v>
       </c>
       <c r="B15">
         <v>0.0004949092264529071</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>9.79619193836035e-06</v>
+        <v>9.796191938360333e-06</v>
       </c>
       <c r="B16">
         <v>0.0005892875260258515</v>
@@ -1105,19 +1105,19 @@
         <v>39</v>
       </c>
       <c r="B3">
-        <v>0.002382382244204118</v>
+        <v>0.002382382244204104</v>
       </c>
       <c r="C3">
-        <v>-0.002236635976348086</v>
+        <v>-0.0022366359763481</v>
       </c>
       <c r="D3">
-        <v>0.001132637968825762</v>
+        <v>0.001132637968825748</v>
       </c>
       <c r="E3">
-        <v>0.002657668299012803</v>
+        <v>0.002657668299012789</v>
       </c>
       <c r="F3">
-        <v>-0.0006789310863635767</v>
+        <v>-0.0006789310863635906</v>
       </c>
       <c r="G3">
         <v>-0.0001675346513713011</v>
@@ -1126,19 +1126,19 @@
         <v>-0.003686297483645073</v>
       </c>
       <c r="I3">
-        <v>-0.0003904306738114691</v>
+        <v>-0.000390430673811476</v>
       </c>
       <c r="J3">
-        <v>0.002886495557205458</v>
+        <v>0.002886495557205455</v>
       </c>
       <c r="K3">
-        <v>-0.001782394442865312</v>
+        <v>-0.001782394442865317</v>
       </c>
       <c r="L3">
         <v>-0.003430392909013927</v>
       </c>
       <c r="M3">
-        <v>-0.0007846047013488201</v>
+        <v>-0.0007846047013488205</v>
       </c>
       <c r="N3">
         <v>-0.001947266275646768</v>
@@ -1268,19 +1268,19 @@
         <v>39</v>
       </c>
       <c r="B3">
-        <v>0.03313257146863412</v>
+        <v>0.03313257146863392</v>
       </c>
       <c r="C3">
-        <v>0.03336172763101022</v>
+        <v>0.03336172763101043</v>
       </c>
       <c r="D3">
-        <v>0.01617340531907793</v>
+        <v>0.01617340531907773</v>
       </c>
       <c r="E3">
-        <v>0.03747557472064455</v>
+        <v>0.03747557472064435</v>
       </c>
       <c r="F3">
-        <v>0.01022482418164228</v>
+        <v>0.01022482418164249</v>
       </c>
       <c r="G3">
         <v>0.002600066190531885</v>
@@ -1289,19 +1289,19 @@
         <v>0.06709076920885353</v>
       </c>
       <c r="I3">
-        <v>0.008869417443898166</v>
+        <v>0.008869417443898324</v>
       </c>
       <c r="J3">
-        <v>0.1076292758496334</v>
+        <v>0.1076292758496333</v>
       </c>
       <c r="K3">
-        <v>0.1987682045785872</v>
+        <v>0.1987682045785878</v>
       </c>
       <c r="L3">
         <v>1.816390281685061</v>
       </c>
       <c r="M3">
-        <v>0.3481142893044101</v>
+        <v>0.3481142893044104</v>
       </c>
       <c r="N3">
         <v>-171.5199749534725</v>

--- a/output/calorimetry/test_1.xlsx
+++ b/output/calorimetry/test_1.xlsx
@@ -25,10 +25,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
   <si>
-    <t>PLP</t>
-  </si>
-  <si>
-    <t>T3H</t>
+    <t>Ald</t>
+  </si>
+  <si>
+    <t>Hydr</t>
   </si>
   <si>
     <t>lg_k</t>
@@ -133,7 +133,7 @@
     <t>0.0014530006039042065</t>
   </si>
   <si>
-    <t>Comp</t>
+    <t>Hydrz</t>
   </si>
   <si>
     <t>data</t>
@@ -148,10 +148,10 @@
     <t>0.0</t>
   </si>
   <si>
-    <t>5.12457275390625</t>
-  </si>
-  <si>
-    <t>0.07359681278467178</t>
+    <t>5.1243896484375</t>
+  </si>
+  <si>
+    <t>0.08683091631657618</t>
   </si>
   <si>
     <t>OK</t>
@@ -566,13 +566,13 @@
         <v>38</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2">
-        <v>47.18270015984229</v>
+        <v>-47.18400184222095</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.587936529199079</v>
+        <v>0.5878688796803043</v>
       </c>
     </row>
   </sheetData>
@@ -798,175 +798,175 @@
         <v>0.0007970219999999987</v>
       </c>
       <c r="B2">
-        <v>9.330091616358198e-21</v>
+        <v>9.333989435922405e-21</v>
       </c>
       <c r="C2">
-        <v>9.906699083839223e-19</v>
+        <v>9.906660105643585e-19</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.0006976282866079834</v>
+        <v>0.0006976287261882581</v>
       </c>
       <c r="B3">
-        <v>1.055186460276294e-06</v>
+        <v>1.055626040551382e-06</v>
       </c>
       <c r="C3">
-        <v>9.806771253267584e-05</v>
+        <v>9.806727295240044e-05</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.0005989077307736143</v>
+        <v>0.0005989087469879397</v>
       </c>
       <c r="B4">
-        <v>2.449853115989168e-06</v>
+        <v>2.450869330314637e-06</v>
       </c>
       <c r="C4">
-        <v>0.0001954666722992891</v>
+        <v>0.0001954656560849638</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>0.000501049303027701</v>
+        <v>0.0005010511050819636</v>
       </c>
       <c r="B5">
-        <v>4.374630386106651e-06</v>
+        <v>4.37643244036896e-06</v>
       </c>
       <c r="C5">
-        <v>0.0002920078868572641</v>
+        <v>0.0002920060848030009</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>0.0004044111722874997</v>
+        <v>0.0004044140977156763</v>
       </c>
       <c r="B6">
-        <v>7.189336084717942e-06</v>
+        <v>7.19226151289438e-06</v>
       </c>
       <c r="C6">
-        <v>0.000387333165522668</v>
+        <v>0.0003873302400944918</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>0.0003097466328334428</v>
+        <v>0.0003097512590243261</v>
       </c>
       <c r="B7">
-        <v>1.164890248858929e-05</v>
+        <v>1.165352867947256e-05</v>
       </c>
       <c r="C7">
-        <v>0.0004806891923922884</v>
+        <v>0.0004806845662014034</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>0.0002188595963794338</v>
+        <v>0.0002188669363957195</v>
       </c>
       <c r="B8">
-        <v>1.955886849738576e-05</v>
+        <v>1.956620851367137e-05</v>
       </c>
       <c r="C8">
-        <v>0.0005702720342721496</v>
+        <v>0.0005702646942558629</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>0.0001366114855285869</v>
+        <v>0.0001366229432178645</v>
       </c>
       <c r="B9">
-        <v>3.57822731784504e-05</v>
+        <v>3.579373086772801e-05</v>
       </c>
       <c r="C9">
-        <v>0.0006512202472206066</v>
+        <v>0.0006512087895313295</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>7.446293954867225e-05</v>
+        <v>7.447759817241203e-05</v>
       </c>
       <c r="B10">
-        <v>7.178136163039258e-05</v>
+        <v>7.179602025413232e-05</v>
       </c>
       <c r="C10">
-        <v>0.0007120731707718265</v>
+        <v>0.0007120585121480837</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>4.102516200277925e-05</v>
+        <v>4.103791556752228e-05</v>
       </c>
       <c r="B11">
-        <v>0.0001361689327009991</v>
+        <v>0.0001361816862657428</v>
       </c>
       <c r="C11">
-        <v>0.0007442195803050465</v>
+        <v>0.0007442068267402886</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>2.601830377458864e-05</v>
+        <v>2.602781679037327e-05</v>
       </c>
       <c r="B12">
-        <v>0.0002186667220989651</v>
+        <v>0.0002186762351147522</v>
       </c>
       <c r="C12">
-        <v>0.0007579393040223681</v>
+        <v>0.0007579297910064992</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>1.859557621915949e-05</v>
+        <v>1.860280597664169e-05</v>
       </c>
       <c r="B13">
-        <v>0.0003084295156299474</v>
+        <v>0.0003084367453874388</v>
       </c>
       <c r="C13">
-        <v>0.0007640791098113056</v>
+        <v>0.0007640718800534368</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>1.4356147668019e-05</v>
+        <v>1.436188864504015e-05</v>
       </c>
       <c r="B14">
-        <v>0.0004010580457861277</v>
+        <v>0.0004010637867631738</v>
       </c>
       <c r="C14">
-        <v>0.000767039808775711</v>
+        <v>0.0007670340677972558</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>1.165537805250118e-05</v>
+        <v>1.166010990015545e-05</v>
       </c>
       <c r="B15">
-        <v>0.0004949092264529071</v>
+        <v>0.000494913958300624</v>
       </c>
       <c r="C15">
-        <v>0.0007684660206882733</v>
+        <v>0.0007684612888361514</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>9.796191938360333e-06</v>
+        <v>9.800205155534634e-06</v>
       </c>
       <c r="B16">
-        <v>0.0005892875260258515</v>
+        <v>0.0005892915392431673</v>
       </c>
       <c r="C16">
-        <v>0.0007690548010903505</v>
+        <v>0.0007690507878610797</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>8.442436350673875e-06</v>
+        <v>8.445915395269162e-06</v>
       </c>
       <c r="B17">
-        <v>0.0006838583253169398</v>
+        <v>0.0006838618043618297</v>
       </c>
       <c r="C17">
-        <v>0.0007691422836752762</v>
+        <v>0.0007691388046014878</v>
       </c>
     </row>
   </sheetData>
@@ -1105,49 +1105,49 @@
         <v>39</v>
       </c>
       <c r="B3">
-        <v>0.002382382244204104</v>
+        <v>0.002380868451341722</v>
       </c>
       <c r="C3">
-        <v>-0.0022366359763481</v>
+        <v>-0.002237855946052733</v>
       </c>
       <c r="D3">
-        <v>0.001132637968825748</v>
+        <v>0.001131751355276961</v>
       </c>
       <c r="E3">
-        <v>0.002657668299012789</v>
+        <v>0.002657222003472431</v>
       </c>
       <c r="F3">
-        <v>-0.0006789310863635906</v>
+        <v>-0.0006787621323298826</v>
       </c>
       <c r="G3">
-        <v>-0.0001675346513713011</v>
+        <v>-0.0001663928370761597</v>
       </c>
       <c r="H3">
-        <v>-0.003686297483645073</v>
+        <v>-0.003683889206730295</v>
       </c>
       <c r="I3">
-        <v>-0.000390430673811476</v>
+        <v>-0.0003882809624511721</v>
       </c>
       <c r="J3">
-        <v>0.002886495557205455</v>
+        <v>0.002885421085913706</v>
       </c>
       <c r="K3">
-        <v>-0.001782394442865317</v>
+        <v>-0.001784150505066391</v>
       </c>
       <c r="L3">
-        <v>-0.003430392909013927</v>
+        <v>-0.00343140357250874</v>
       </c>
       <c r="M3">
-        <v>-0.0007846047013488205</v>
+        <v>-0.0007850088946899834</v>
       </c>
       <c r="N3">
-        <v>-0.001947266275646768</v>
+        <v>-0.001947310028463187</v>
       </c>
       <c r="O3">
-        <v>-0.002562758211590173</v>
+        <v>-0.002562551125734338</v>
       </c>
       <c r="P3">
-        <v>-0.002467256051182194</v>
+        <v>-0.00246694741233297</v>
       </c>
     </row>
   </sheetData>
@@ -1268,49 +1268,49 @@
         <v>39</v>
       </c>
       <c r="B3">
-        <v>0.03313257146863392</v>
+        <v>0.03311151865466019</v>
       </c>
       <c r="C3">
-        <v>0.03336172763101043</v>
+        <v>0.03337992473480132</v>
       </c>
       <c r="D3">
-        <v>0.01617340531907773</v>
+        <v>0.01616074499805673</v>
       </c>
       <c r="E3">
-        <v>0.03747557472064435</v>
+        <v>0.03746928154181674</v>
       </c>
       <c r="F3">
-        <v>0.01022482418164249</v>
+        <v>0.01022227970352956</v>
       </c>
       <c r="G3">
-        <v>0.002600066190531885</v>
+        <v>0.002582345720644832</v>
       </c>
       <c r="H3">
-        <v>0.06709076920885353</v>
+        <v>0.06704693846773802</v>
       </c>
       <c r="I3">
-        <v>0.008869417443898324</v>
+        <v>0.008820582429855261</v>
       </c>
       <c r="J3">
-        <v>0.1076292758496333</v>
+        <v>0.1075892118464986</v>
       </c>
       <c r="K3">
-        <v>0.1987682045785878</v>
+        <v>0.1989640362769153</v>
       </c>
       <c r="L3">
-        <v>1.816390281685061</v>
+        <v>1.81692542719134</v>
       </c>
       <c r="M3">
-        <v>0.3481142893044104</v>
+        <v>0.3482936222569896</v>
       </c>
       <c r="N3">
-        <v>-171.5199749534725</v>
+        <v>-171.5238288085256</v>
       </c>
       <c r="O3">
-        <v>-2.083614409264523</v>
+        <v>-2.083446041030945</v>
       </c>
       <c r="P3">
-        <v>-1.648399008245278</v>
+        <v>-1.648192803472683</v>
       </c>
     </row>
   </sheetData>
@@ -1391,7 +1391,7 @@
         <v>36</v>
       </c>
       <c r="B2">
-        <v>0.9999999403953552</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
